--- a/data/Dental_data.xlsx
+++ b/data/Dental_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachdyannaufal/Documents/R PROJECT (30 Mar 2024)/DentalLoupeInserts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy\OneDrive\Desktop\Master Database\DentalLoupeInserts_Biolase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6419DFF-900B-944A-949D-0C32111B1D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E7C345-E9E5-4326-A65C-8E20C8B11D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="17280" xr2:uid="{29F14E0B-5742-47C3-A3C8-7961C9D3ABD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29F14E0B-5742-47C3-A3C8-7961C9D3ABD6}"/>
   </bookViews>
   <sheets>
     <sheet name="laser_info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="417">
   <si>
     <t xml:space="preserve">Laser Mfg </t>
   </si>
@@ -367,14 +367,6 @@
     <t>Dental</t>
   </si>
   <si>
-    <t>200-455nm (OD 5), 
-630-670nm (OD 1), 
-725-800nm (OD 5), 
-800-955nm (OD 4), 
-955-1080nm (OD 6), 
-9000-11000nm (OD 7)</t>
-  </si>
-  <si>
     <t>626.Pi23.Pi17</t>
   </si>
   <si>
@@ -408,9 +400,6 @@
     <t>01 Frame</t>
   </si>
   <si>
-    <t xml:space="preserve">50-19 (on the nose bridge) </t>
-  </si>
-  <si>
     <t>01S</t>
   </si>
   <si>
@@ -420,21 +409,12 @@
     <t>01M</t>
   </si>
   <si>
-    <t>55-19</t>
-  </si>
-  <si>
-    <t>58-19</t>
-  </si>
-  <si>
     <t>01L</t>
   </si>
   <si>
     <t>02 Frame</t>
   </si>
   <si>
-    <t>49-19</t>
-  </si>
-  <si>
     <t>02S</t>
   </si>
   <si>
@@ -468,15 +448,9 @@
     <t>Rudy Project</t>
   </si>
   <si>
-    <t>Rudy/Rydon</t>
-  </si>
-  <si>
     <t>IVR</t>
   </si>
   <si>
-    <t>Rudy/Rydon Deep B</t>
-  </si>
-  <si>
     <t>IVL</t>
   </si>
   <si>
@@ -579,9 +553,6 @@
     <t>Zeiss</t>
   </si>
   <si>
-    <t>One style</t>
-  </si>
-  <si>
     <t>VS</t>
   </si>
   <si>
@@ -664,45 +635,6 @@
   </si>
   <si>
     <t>Yeoman</t>
-  </si>
-  <si>
-    <t>54-22</t>
-  </si>
-  <si>
-    <t>52-24</t>
-  </si>
-  <si>
-    <t>52-22</t>
-  </si>
-  <si>
-    <t>50-22</t>
-  </si>
-  <si>
-    <t>48-24</t>
-  </si>
-  <si>
-    <t>48-22</t>
-  </si>
-  <si>
-    <t>48-20</t>
-  </si>
-  <si>
-    <t>46-24</t>
-  </si>
-  <si>
-    <t>46-22</t>
-  </si>
-  <si>
-    <t>46-20</t>
-  </si>
-  <si>
-    <t>44-22</t>
-  </si>
-  <si>
-    <t>42-22</t>
-  </si>
-  <si>
-    <t>55-17</t>
   </si>
   <si>
     <t>Steam</t>
@@ -1271,9 +1203,6 @@
     <t>Green lenses with high VLT, made with lightweight materials to reduce fatigue</t>
   </si>
   <si>
-    <t>200-455nm (OD 5), 650-665nm (OD 1), 725-800nm (OD 5), 800-955nm (OD 4), 955-1080nm (OD 6), 9000-11000nm (OD 7)</t>
-  </si>
-  <si>
     <t>https://innovativeoptics.com/pi17-laser-glasses-frames/</t>
   </si>
   <si>
@@ -1328,13 +1257,108 @@
     <t xml:space="preserve">757.Pi23 </t>
   </si>
   <si>
-    <t>810nm OD 5+</t>
-  </si>
-  <si>
-    <t>980nm  OD 5+</t>
-  </si>
-  <si>
     <t xml:space="preserve">Convergent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siro Blue Plus </t>
+  </si>
+  <si>
+    <t>655-665nm OD1, 960-985nm OD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50-19 (on the inside of the nose bridge) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">53-19 (on the inside of the nose bridge) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55-19 (on the inside of the nose bridge) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58-19 (on the inside of the nose bridge) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">49-19 (on the inside of the nose bridge) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">51-19 (on the inside of the nose bridge) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">54-19 (on the inside of the nose bridge) </t>
+  </si>
+  <si>
+    <t>54-22 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>52-24 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>52-22 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>50-24 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>50-22 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>48-24 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>48-22 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>48-20 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>46-24 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>46-22 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>46-20 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>44-22 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>42-22 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>55-17 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>56-18 (inside frame, upper left)</t>
+  </si>
+  <si>
+    <t>200-455nm (OD 5), 
+630-670nm (OD 1), 
+725-800nm (OD 5), 
+800-955nm (OD 5), 
+955-1080nm (OD 6), 
+9000-11000nm (OD 7)</t>
+  </si>
+  <si>
+    <t>https://innovativeoptics.com/pi30-laser-glasses-frames/</t>
+  </si>
+  <si>
+    <t>https://innovativeoptics.com/pi22-laser-glasses-frames/</t>
+  </si>
+  <si>
+    <t>https://innovativeoptics.com/pi23-laser-glasses-frames/</t>
+  </si>
+  <si>
+    <t>810nm OD 5+/980nm  OD 5+</t>
+  </si>
+  <si>
+    <t>Rudy/Rydon Standard lens</t>
+  </si>
+  <si>
+    <t>Rudy/Rydon Deep B lens</t>
+  </si>
+  <si>
+    <t>200-455nm (OD 5), 650-665nm (OD 1), 725-800nm (OD 5), 800-955nm (OD 5), 955-1080nm (OD 6), 9000-11000nm (OD 7)</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1370,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1410,15 +1434,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1B1B1B"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1435,6 +1452,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1495,10 +1518,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1517,14 +1538,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1562,7 +1579,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1668,7 +1685,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1810,7 +1827,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1818,23 +1835,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F4191B-CE3C-4F0F-A124-77EB98865CC2}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="10" width="14.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="10" width="14.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1869,10 +1886,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1886,16 +1903,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J2" s="15">
         <v>0.7</v>
@@ -1905,7 +1922,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1919,16 +1936,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J3" s="15">
         <v>0.7</v>
@@ -1938,7 +1955,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1952,16 +1969,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J4" s="15">
         <v>0.7</v>
@@ -1971,7 +1988,7 @@
       </c>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1985,16 +2002,16 @@
         <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" s="15">
         <v>0.7</v>
@@ -2004,7 +2021,7 @@
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2018,16 +2035,16 @@
         <v>23</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" s="15">
         <v>0.7</v>
@@ -2037,7 +2054,7 @@
       </c>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2051,16 +2068,16 @@
         <v>19</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" s="15">
         <v>0.7</v>
@@ -2070,7 +2087,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2084,16 +2101,16 @@
         <v>19</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J8" s="15">
         <v>0.7</v>
@@ -2103,7 +2120,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2117,16 +2134,16 @@
         <v>19</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J9" s="15">
         <v>0.7</v>
@@ -2136,7 +2153,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2150,16 +2167,16 @@
         <v>19</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="15">
         <v>0.7</v>
@@ -2169,7 +2186,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2183,16 +2200,16 @@
         <v>32</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J11" s="15">
         <v>0.7</v>
@@ -2202,7 +2219,7 @@
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -2215,7 +2232,7 @@
       <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -2225,7 +2242,7 @@
         <v>39</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J12" s="15">
         <v>0.7</v>
@@ -2235,7 +2252,7 @@
       </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2258,7 +2275,7 @@
         <v>39</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J13" s="15">
         <v>0.7</v>
@@ -2268,7 +2285,7 @@
       </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2291,7 +2308,7 @@
         <v>39</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J14" s="15">
         <v>0.7</v>
@@ -2301,7 +2318,7 @@
       </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2324,7 +2341,7 @@
         <v>39</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J15" s="15">
         <v>0.7</v>
@@ -2334,7 +2351,7 @@
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2357,7 +2374,7 @@
         <v>39</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J16" s="15">
         <v>0.7</v>
@@ -2367,7 +2384,7 @@
       </c>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2390,7 +2407,7 @@
         <v>39</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J17" s="15">
         <v>0.7</v>
@@ -2400,7 +2417,7 @@
       </c>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2423,7 +2440,7 @@
         <v>39</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J18" s="15">
         <v>0.7</v>
@@ -2433,7 +2450,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -2456,7 +2473,7 @@
         <v>39</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J19" s="15">
         <v>0.7</v>
@@ -2466,7 +2483,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2489,7 +2506,7 @@
         <v>39</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J20" s="15">
         <v>0.7</v>
@@ -2499,7 +2516,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2522,7 +2539,7 @@
         <v>39</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J21" s="15">
         <v>0.7</v>
@@ -2532,7 +2549,7 @@
       </c>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -2555,7 +2572,7 @@
         <v>39</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J22" s="15">
         <v>0.7</v>
@@ -2565,15 +2582,15 @@
       </c>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
@@ -2588,21 +2605,21 @@
         <v>64</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J23" s="15">
         <v>0.34</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -2621,21 +2638,21 @@
         <v>64</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J24" s="15">
         <v>0.34</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="12" t="s">
@@ -2654,17 +2671,17 @@
         <v>64</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J25" s="15">
         <v>0.34</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2687,17 +2704,17 @@
         <v>64</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J26" s="15">
         <v>0.34</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2720,25 +2737,25 @@
         <v>64</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J27" s="15">
         <v>0.34</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="D28" t="s">
         <v>75</v>
@@ -2753,28 +2770,28 @@
         <v>64</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J28" s="15">
         <v>0.34</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>385</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>62</v>
@@ -2786,25 +2803,25 @@
         <v>64</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J29" s="15">
         <v>0.34</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
@@ -2819,30 +2836,30 @@
         <v>64</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J30" s="15">
         <v>0.34</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" t="s">
-        <v>98</v>
+        <v>58</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>99</v>
+        <v>413</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G31" s="14" t="s">
@@ -2852,58 +2869,58 @@
         <v>64</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J31" s="15">
         <v>0.34</v>
       </c>
       <c r="K31" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>408</v>
-      </c>
-      <c r="B32" s="12" t="s">
+      <c r="J32" s="15">
+        <v>0.34</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>384</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
@@ -2918,7 +2935,7 @@
         <v>85</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J33" s="15">
         <v>0.4</v>
@@ -2926,14 +2943,14 @@
       <c r="K33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>89</v>
+      <c r="B34" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>88</v>
@@ -2951,7 +2968,7 @@
         <v>85</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J34" s="15">
         <v>0.4</v>
@@ -2959,17 +2976,17 @@
       <c r="K34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>91</v>
+        <v>16</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
         <v>82</v>
@@ -2984,7 +3001,7 @@
         <v>85</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" s="15">
         <v>0.4</v>
@@ -2992,14 +3009,14 @@
       <c r="K35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>92</v>
@@ -3017,7 +3034,7 @@
         <v>85</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J36" s="15">
         <v>0.4</v>
@@ -3025,20 +3042,20 @@
       <c r="K36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>95</v>
+      <c r="B37" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>83</v>
@@ -3050,7 +3067,7 @@
         <v>85</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J37" s="15">
         <v>0.4</v>
@@ -3058,53 +3075,86 @@
       <c r="K37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>108</v>
       </c>
       <c r="J38" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="15">
         <v>0.34</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="3"/>
+      <c r="K39" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K38">
-    <sortCondition ref="E2:E38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K39">
+    <sortCondition ref="E2:E39"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -3136,17 +3186,19 @@
     <hyperlink ref="E26" r:id="rId26" xr:uid="{804DE091-E0D4-B34B-854A-0B74084A2EB7}"/>
     <hyperlink ref="E27" r:id="rId27" xr:uid="{A57FBA44-DDE1-AC47-99CB-BB2E232436B4}"/>
     <hyperlink ref="E28" r:id="rId28" xr:uid="{0EAE4D34-ADAC-5A49-91A3-7107E9074BA2}"/>
-    <hyperlink ref="E29" r:id="rId29" xr:uid="{0E075E39-FA82-664B-BA8A-1A52BAECFC84}"/>
-    <hyperlink ref="E30" r:id="rId30" xr:uid="{5B9612EF-AECC-7044-8B28-CCE27C127AA5}"/>
-    <hyperlink ref="E32" r:id="rId31" xr:uid="{107A6ED3-023C-E047-809D-9775793612B5}"/>
-    <hyperlink ref="E33" r:id="rId32" xr:uid="{420B3EC9-3039-FA4C-8226-A6BBCC1F2ADC}"/>
-    <hyperlink ref="E34" r:id="rId33" xr:uid="{6247BF06-DA2A-FA4D-A7C7-CF816EF482CE}"/>
-    <hyperlink ref="E35" r:id="rId34" xr:uid="{DF0C5439-0AAB-BC4B-982D-FDC7524E2FD2}"/>
-    <hyperlink ref="E31" r:id="rId35" xr:uid="{E17D4766-382E-354A-817A-B7082F8346A5}"/>
-    <hyperlink ref="E38" r:id="rId36" xr:uid="{AF72C4EB-9562-0940-B0F1-32D69B2A7300}"/>
+    <hyperlink ref="E30" r:id="rId29" xr:uid="{0E075E39-FA82-664B-BA8A-1A52BAECFC84}"/>
+    <hyperlink ref="E31" r:id="rId30" xr:uid="{5B9612EF-AECC-7044-8B28-CCE27C127AA5}"/>
+    <hyperlink ref="E33" r:id="rId31" xr:uid="{107A6ED3-023C-E047-809D-9775793612B5}"/>
+    <hyperlink ref="E34" r:id="rId32" xr:uid="{420B3EC9-3039-FA4C-8226-A6BBCC1F2ADC}"/>
+    <hyperlink ref="E35" r:id="rId33" xr:uid="{6247BF06-DA2A-FA4D-A7C7-CF816EF482CE}"/>
+    <hyperlink ref="E36" r:id="rId34" xr:uid="{DF0C5439-0AAB-BC4B-982D-FDC7524E2FD2}"/>
+    <hyperlink ref="E32" r:id="rId35" xr:uid="{E17D4766-382E-354A-817A-B7082F8346A5}"/>
+    <hyperlink ref="E39" r:id="rId36" xr:uid="{AF72C4EB-9562-0940-B0F1-32D69B2A7300}"/>
+    <hyperlink ref="E29" r:id="rId37" xr:uid="{652E095E-19BF-42E5-A61D-9B53F5660B93}"/>
+    <hyperlink ref="E12" r:id="rId38" xr:uid="{31C425AD-9A2D-4989-8979-A15757E12329}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 
@@ -3154,1633 +3206,1639 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C01629-0328-48DC-A4F4-B3C50775B1B9}">
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:A99"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
         <v>117</v>
       </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" t="s">
         <v>123</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
         <v>127</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D10" t="s">
         <v>129</v>
       </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
         <v>131</v>
       </c>
-      <c r="D9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D12" t="s">
         <v>132</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
         <v>133</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" t="s">
         <v>135</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
         <v>138</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
         <v>139</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C18" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D18" t="s">
         <v>141</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
         <v>143</v>
       </c>
-      <c r="D15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
         <v>144</v>
       </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
         <v>145</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
         <v>145</v>
       </c>
-      <c r="D17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>147</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
         <v>149</v>
       </c>
-      <c r="D19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>150</v>
       </c>
-      <c r="D20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>151</v>
       </c>
-      <c r="D21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C25" t="s">
         <v>152</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D25" t="s">
         <v>153</v>
       </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
         <v>154</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D27" t="s">
         <v>156</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
         <v>157</v>
       </c>
-      <c r="D24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
         <v>158</v>
-      </c>
-      <c r="C25" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" t="s">
-        <v>165</v>
       </c>
       <c r="D29" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
         <v>164</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="40" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B43" t="s">
         <v>174</v>
       </c>
-      <c r="C37" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C43" t="s">
         <v>176</v>
       </c>
-      <c r="C38" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>181</v>
-      </c>
-      <c r="B43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" t="s">
-        <v>185</v>
-      </c>
       <c r="D44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B45" s="8">
         <v>877</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B46" s="8">
         <v>877</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B47" s="8">
         <v>879</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B48" s="8">
         <v>879</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" t="s">
         <v>181</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" t="s">
         <v>187</v>
       </c>
-      <c r="C49" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" t="s">
         <v>188</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C56" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" t="s">
         <v>189</v>
       </c>
-      <c r="C50" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" t="s">
         <v>190</v>
       </c>
-      <c r="C51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C58" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" t="s">
         <v>191</v>
       </c>
-      <c r="C52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C59" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>192</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B60" t="s">
         <v>193</v>
       </c>
-      <c r="C53" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>192</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B61" t="s">
         <v>194</v>
       </c>
-      <c r="C54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>195</v>
       </c>
-      <c r="C55" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="B62" t="s">
         <v>196</v>
       </c>
-      <c r="C56" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>192</v>
-      </c>
-      <c r="B57" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>192</v>
-      </c>
-      <c r="B58" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>192</v>
-      </c>
-      <c r="B59" t="s">
-        <v>199</v>
-      </c>
-      <c r="C59" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>200</v>
-      </c>
-      <c r="B60" t="s">
-        <v>201</v>
-      </c>
-      <c r="C60" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" t="s">
-        <v>204</v>
-      </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>394</v>
       </c>
       <c r="D62" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>395</v>
       </c>
       <c r="D63" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>396</v>
       </c>
       <c r="D64" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>397</v>
       </c>
       <c r="D65" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>398</v>
       </c>
       <c r="D66" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>209</v>
+        <v>399</v>
       </c>
       <c r="D67" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="D68" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>401</v>
       </c>
       <c r="D69" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>402</v>
       </c>
       <c r="D70" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>213</v>
+        <v>403</v>
       </c>
       <c r="D71" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="D72" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>405</v>
       </c>
       <c r="D73" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>406</v>
       </c>
       <c r="D74" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>217</v>
+        <v>407</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>408</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B77" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B78" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D79" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>195</v>
+      </c>
+      <c r="B82" t="s">
         <v>203</v>
       </c>
-      <c r="B80" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" t="s">
-        <v>222</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>203</v>
-      </c>
-      <c r="B81" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" t="s">
-        <v>223</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>203</v>
-      </c>
-      <c r="B82" t="s">
-        <v>218</v>
-      </c>
       <c r="C82" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="D82" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" t="s">
+        <v>204</v>
+      </c>
+      <c r="C84" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" t="s">
+        <v>150</v>
+      </c>
+      <c r="D88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" t="s">
+        <v>150</v>
+      </c>
+      <c r="D89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>195</v>
+      </c>
+      <c r="B90" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" t="s">
+        <v>375</v>
+      </c>
+      <c r="C92" t="s">
+        <v>376</v>
+      </c>
+      <c r="D92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" t="s">
+        <v>377</v>
+      </c>
+      <c r="C93" t="s">
+        <v>376</v>
+      </c>
+      <c r="D93" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" t="s">
+        <v>379</v>
+      </c>
+      <c r="C94" t="s">
+        <v>376</v>
+      </c>
+      <c r="D94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" t="s">
+        <v>380</v>
+      </c>
+      <c r="C95" t="s">
+        <v>376</v>
+      </c>
+      <c r="D95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" t="s">
+        <v>375</v>
+      </c>
+      <c r="C96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>211</v>
+      </c>
+      <c r="B98" t="s">
+        <v>379</v>
+      </c>
+      <c r="C98" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" t="s">
+        <v>380</v>
+      </c>
+      <c r="C99" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C102" t="s">
+        <v>147</v>
+      </c>
+      <c r="D102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>214</v>
+      </c>
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
         <v>218</v>
       </c>
-      <c r="C83" t="s">
-        <v>218</v>
-      </c>
-      <c r="D83" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>203</v>
-      </c>
-      <c r="B84" t="s">
-        <v>218</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="C105" t="s">
+        <v>150</v>
+      </c>
+      <c r="D105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" t="s">
+        <v>221</v>
+      </c>
+      <c r="D106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" t="s">
         <v>225</v>
       </c>
-      <c r="D84" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>203</v>
-      </c>
-      <c r="B85" t="s">
-        <v>218</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="C109" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" t="s">
         <v>226</v>
       </c>
-      <c r="D85" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>203</v>
-      </c>
-      <c r="B86" t="s">
-        <v>218</v>
-      </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" t="s">
         <v>227</v>
       </c>
-      <c r="D86" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>203</v>
-      </c>
-      <c r="B87" t="s">
-        <v>218</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="C110" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
         <v>228</v>
       </c>
-      <c r="D87" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>203</v>
-      </c>
-      <c r="B88" t="s">
-        <v>218</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="C111" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
         <v>229</v>
       </c>
-      <c r="D88" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>203</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C112" t="s">
+        <v>150</v>
+      </c>
+      <c r="D112" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" t="s">
         <v>230</v>
       </c>
-      <c r="C89" t="s">
-        <v>157</v>
-      </c>
-      <c r="D89" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>203</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C113" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" t="s">
         <v>231</v>
       </c>
-      <c r="C90" t="s">
-        <v>157</v>
-      </c>
-      <c r="D90" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="C114" t="s">
+        <v>150</v>
+      </c>
+      <c r="D114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" t="s">
         <v>232</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C115" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>222</v>
+      </c>
+      <c r="B116" t="s">
         <v>233</v>
       </c>
-      <c r="C91" t="s">
-        <v>157</v>
-      </c>
-      <c r="D91" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>232</v>
-      </c>
-      <c r="B92" t="s">
-        <v>397</v>
-      </c>
-      <c r="C92" t="s">
-        <v>398</v>
-      </c>
-      <c r="D92" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>232</v>
-      </c>
-      <c r="B93" t="s">
-        <v>399</v>
-      </c>
-      <c r="C93" t="s">
-        <v>398</v>
-      </c>
-      <c r="D93" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>232</v>
-      </c>
-      <c r="B94" t="s">
-        <v>401</v>
-      </c>
-      <c r="C94" t="s">
-        <v>398</v>
-      </c>
-      <c r="D94" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>232</v>
-      </c>
-      <c r="B95" t="s">
-        <v>402</v>
-      </c>
-      <c r="C95" t="s">
-        <v>398</v>
-      </c>
-      <c r="D95" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>232</v>
-      </c>
-      <c r="B96" t="s">
-        <v>397</v>
-      </c>
-      <c r="C96" t="s">
-        <v>169</v>
-      </c>
-      <c r="D96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>232</v>
-      </c>
-      <c r="B97" t="s">
-        <v>399</v>
-      </c>
-      <c r="C97" t="s">
-        <v>169</v>
-      </c>
-      <c r="D97" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" t="s">
-        <v>401</v>
-      </c>
-      <c r="C98" t="s">
-        <v>169</v>
-      </c>
-      <c r="D98" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>232</v>
-      </c>
-      <c r="B99" t="s">
-        <v>402</v>
-      </c>
-      <c r="C99" t="s">
-        <v>169</v>
-      </c>
-      <c r="D99" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>232</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C116" t="s">
+        <v>150</v>
+      </c>
+      <c r="D116" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>222</v>
+      </c>
+      <c r="B117" t="s">
         <v>234</v>
       </c>
-      <c r="C100" t="s">
-        <v>157</v>
-      </c>
-      <c r="D100" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>235</v>
-      </c>
-      <c r="B101" t="s">
-        <v>236</v>
-      </c>
-      <c r="C101" t="s">
-        <v>153</v>
-      </c>
-      <c r="D101" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>235</v>
-      </c>
-      <c r="B102" t="s">
-        <v>236</v>
-      </c>
-      <c r="C102" t="s">
-        <v>154</v>
-      </c>
-      <c r="D102" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>235</v>
-      </c>
-      <c r="B103" t="s">
-        <v>237</v>
-      </c>
-      <c r="C103" t="s">
-        <v>157</v>
-      </c>
-      <c r="D103" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>235</v>
-      </c>
-      <c r="B104" t="s">
-        <v>238</v>
-      </c>
-      <c r="C104" t="s">
-        <v>157</v>
-      </c>
-      <c r="D104" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>235</v>
-      </c>
-      <c r="B105" t="s">
-        <v>239</v>
-      </c>
-      <c r="C105" t="s">
-        <v>157</v>
-      </c>
-      <c r="D105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>240</v>
-      </c>
-      <c r="B106" t="s">
-        <v>241</v>
-      </c>
-      <c r="C106" t="s">
-        <v>242</v>
-      </c>
-      <c r="D106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>243</v>
-      </c>
-      <c r="B107" t="s">
-        <v>244</v>
-      </c>
-      <c r="C107" t="s">
-        <v>157</v>
-      </c>
-      <c r="D107" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>243</v>
-      </c>
-      <c r="B108" t="s">
-        <v>245</v>
-      </c>
-      <c r="C108" t="s">
-        <v>157</v>
-      </c>
-      <c r="D108" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>243</v>
-      </c>
-      <c r="B109" t="s">
-        <v>246</v>
-      </c>
-      <c r="C109" t="s">
-        <v>157</v>
-      </c>
-      <c r="D109" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>243</v>
-      </c>
-      <c r="B110" t="s">
-        <v>248</v>
-      </c>
-      <c r="C110" t="s">
-        <v>157</v>
-      </c>
-      <c r="D110" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>243</v>
-      </c>
-      <c r="B111" t="s">
-        <v>249</v>
-      </c>
-      <c r="C111" t="s">
-        <v>157</v>
-      </c>
-      <c r="D111" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>243</v>
-      </c>
-      <c r="B112" t="s">
-        <v>250</v>
-      </c>
-      <c r="C112" t="s">
-        <v>157</v>
-      </c>
-      <c r="D112" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>243</v>
-      </c>
-      <c r="B113" t="s">
-        <v>251</v>
-      </c>
-      <c r="C113" t="s">
-        <v>157</v>
-      </c>
-      <c r="D113" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>243</v>
-      </c>
-      <c r="B114" t="s">
-        <v>252</v>
-      </c>
-      <c r="C114" t="s">
-        <v>157</v>
-      </c>
-      <c r="D114" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>243</v>
-      </c>
-      <c r="B115" t="s">
-        <v>253</v>
-      </c>
-      <c r="C115" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>243</v>
-      </c>
-      <c r="B116" t="s">
-        <v>254</v>
-      </c>
-      <c r="C116" t="s">
-        <v>157</v>
-      </c>
-      <c r="D116" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B117" t="s">
-        <v>255</v>
-      </c>
       <c r="C117" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D117" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4792,780 +4850,790 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C2BCAE-C18D-46A7-93FE-4E59012F3E5E}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="4" max="4" width="105.88671875" customWidth="1"/>
+    <col min="8" max="8" width="61.5546875" customWidth="1"/>
+    <col min="9" max="9" width="57.109375" customWidth="1"/>
+    <col min="10" max="10" width="35.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="E1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="H1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="I1" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="J1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="K1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="E2">
         <v>0.18</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" t="s">
-        <v>272</v>
+        <v>250</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="I2" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="J2" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="K2" s="9">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="E3">
         <v>0.26</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="I3" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="J3" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="K3" s="9">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E4">
         <v>0.15</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="G4" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>273</v>
+        <v>265</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="J4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="E5">
         <v>0.3</v>
       </c>
       <c r="F5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" t="s">
         <v>270</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>271</v>
       </c>
-      <c r="H5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" t="s">
-        <v>292</v>
-      </c>
       <c r="J5" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="K5" s="9">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="E6">
         <v>0.6</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="G6" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="I6" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="J6" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="K6" s="9">
         <v>395</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="E7">
         <v>0.65</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="I7" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="J7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="K7" s="9">
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="D8" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="E8">
         <v>0.39</v>
       </c>
       <c r="F8" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G8" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H8" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="I8" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="J8" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="K8" s="9">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E9">
         <v>0.09</v>
       </c>
       <c r="F9" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G9" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H9" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="J9" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="K9" s="11">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="E10">
         <v>0.9</v>
       </c>
       <c r="F10" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G10" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H10" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J10" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="K10" s="11">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="E11">
         <v>0.25</v>
       </c>
       <c r="F11" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G11" t="s">
-        <v>279</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>326</v>
+        <v>258</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>305</v>
       </c>
       <c r="J11" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C12" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D12" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="E12">
         <v>0.9</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
-      </c>
-      <c r="H12" t="s">
-        <v>330</v>
+        <v>258</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="I12" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="J12" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="K12" s="9">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="D13" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="E13">
         <v>0.15</v>
       </c>
       <c r="F13" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G13" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="I13" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="J13" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="K13" s="9">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="E14">
         <v>0.09</v>
       </c>
       <c r="F14" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G14" t="s">
-        <v>279</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>286</v>
+        <v>258</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>411</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="J14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="D15" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="E15">
         <v>0.13</v>
       </c>
       <c r="F15" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G15" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H15" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="I15" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="J15" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="K15" s="9">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C16" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E16">
         <v>0.32</v>
       </c>
       <c r="F16" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G16" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H16" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="I16" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="J16" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="K16" s="9">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D17" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
       <c r="F17" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G17" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H17" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="I17" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="J17" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="K17" s="9">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="C18" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="D18" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="E18">
         <v>0.09</v>
       </c>
       <c r="F18" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G18" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H18" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="I18" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="J18" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="K18" s="9">
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="D19" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="E19">
         <v>0.44</v>
       </c>
       <c r="F19" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="G19" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="H19" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="I19" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="J19" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="K19" s="9">
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="D20" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="E20">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G20" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="J20" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="K20" s="11">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="E21">
         <v>0.7</v>
       </c>
       <c r="F21" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G21" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="J21" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="K21" s="9">
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="C22" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="D22" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="E22">
         <v>0.4</v>
       </c>
       <c r="F22" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G22" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="I22" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="J22" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="K22" s="9">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C23" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="D23" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="E23">
         <v>0.34</v>
       </c>
       <c r="F23" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G23" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="H23" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="I23" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="J23" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="K23" s="9">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="C24" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="D24" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="E24">
         <v>0.19</v>
       </c>
       <c r="F24" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>279</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="I24" t="s">
-        <v>336</v>
+        <v>258</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="J24" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="K24" s="9">
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>395</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
       <c r="J25" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -5579,6 +5647,13 @@
     <hyperlink ref="I21" r:id="rId7" xr:uid="{1A9C39C6-0814-4E30-94B5-7A42F54F1DAF}"/>
     <hyperlink ref="H21" r:id="rId8" xr:uid="{86CC4846-3BA6-4A85-BF1D-ABB4B1FAA4B7}"/>
     <hyperlink ref="H22" r:id="rId9" xr:uid="{3A565986-14A8-4A6D-B0F4-E66327344D82}"/>
+    <hyperlink ref="H12" r:id="rId10" xr:uid="{B0F8347C-A0D5-41CB-AEB8-06E9EFC17427}"/>
+    <hyperlink ref="H24" r:id="rId11" xr:uid="{A744982E-C87E-4B2C-B579-0EE005CBD485}"/>
+    <hyperlink ref="H14" r:id="rId12" xr:uid="{5213D845-4B18-4594-95D8-FA2F589EFF7A}"/>
+    <hyperlink ref="H11" r:id="rId13" xr:uid="{78EAC9D1-808A-48DE-ABDC-6A992F8EFAE7}"/>
+    <hyperlink ref="I4" r:id="rId14" xr:uid="{10C8E993-66CA-453E-A734-B87373B43BB5}"/>
+    <hyperlink ref="I11" r:id="rId15" xr:uid="{75FBAD93-1764-4318-9C0B-1AFBD8FBE9C9}"/>
+    <hyperlink ref="H2" r:id="rId16" xr:uid="{C13679FA-67F3-447D-8276-4EE1E9AFBCCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
